--- a/result/spec/TotalData.xlsx
+++ b/result/spec/TotalData.xlsx
@@ -14,6 +14,55 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
+    <sheet name="0103040030_op-21.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
+    <sheet name="0104020007_op-20.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
+    <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
+    <sheet name="0104020009_OP-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
+    <sheet name="0903010030_op-21.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
+    <sheet name="0903020030_op-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030031_OP-21.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
+    <sheet name="0903030032_OP-20.plm.plx.xlsx" sheetId="10" r:id="rId13"/>
+    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="11" r:id="rId14"/>
+    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="12" r:id="rId15"/>
+    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="13" r:id="rId16"/>
+    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="14" r:id="rId17"/>
+    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="15" r:id="rId18"/>
+    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="16" r:id="rId19"/>
+    <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
+    <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
+    <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
+    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -189,6 +238,9 @@
   </si>
   <si>
     <t>2704040004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704040005_OP-21.plm.plx.xlsx</t>
   </si>
 </sst>
 </file>
@@ -538,6 +590,126 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -1085,7 +1257,486 @@
         <v>40</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>124</v>
+      </c>
+      <c r="C50">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/spec/TotalData.xlsx
+++ b/result/spec/TotalData.xlsx
@@ -14,7 +14,8 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
-    <sheet name="1503040000_op-21" sheetId="3" r:id="rId6"/>
+    <sheet name="0903030033_OP-21" sheetId="5" r:id="rId8"/>
+    <sheet name="1503040000_op-21" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -96,15 +97,69 @@
     <t>PK</t>
   </si>
   <si>
+    <t>ЗЕ у компетенции UK</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>0903030033_OP-21</t>
+  </si>
+  <si>
+    <t>242.000000</t>
+  </si>
+  <si>
+    <t>50.000000</t>
+  </si>
+  <si>
+    <t>250.000000</t>
+  </si>
+  <si>
+    <t>52.000000</t>
+  </si>
+  <si>
+    <t>15.000000</t>
+  </si>
+  <si>
+    <t>0.126033</t>
+  </si>
+  <si>
+    <t>4.000000</t>
+  </si>
+  <si>
+    <t>0.745868</t>
+  </si>
+  <si>
+    <t>1.512397</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>158.000000</t>
+  </si>
+  <si>
+    <t>37.799043%</t>
+  </si>
+  <si>
+    <t>151.000000</t>
+  </si>
+  <si>
+    <t>36.124402%</t>
+  </si>
+  <si>
+    <t>109.000000</t>
+  </si>
+  <si>
+    <t>26.076555%</t>
+  </si>
+  <si>
     <t>1503040000_op-21</t>
   </si>
   <si>
     <t>244.000000</t>
   </si>
   <si>
-    <t>52.000000</t>
-  </si>
-  <si>
     <t>276.000000</t>
   </si>
   <si>
@@ -168,6 +223,66 @@
     <t>58.000000 (у УП 1503040000_op-21)</t>
   </si>
   <si>
+    <t>15.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>0.126033 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>4.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>0.766393 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>3.973361 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>43.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>4.274354 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>243.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>24.155070 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>267.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>37.799043 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>453.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>45.029821 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>109.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>26.076555 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>Минимальные значения:</t>
+  </si>
+  <si>
+    <t>242.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>50.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>250.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>52.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
     <t>11.000000 (у УП 1503040000_op-21)</t>
   </si>
   <si>
@@ -180,37 +295,82 @@
     <t>1.000000 (у УП 1503040000_op-21)</t>
   </si>
   <si>
-    <t>0.766393 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>3.973361 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>43.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>4.274354 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>243.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>24.155070 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>267.000000 (у УП 1503040000_op-21)</t>
+    <t>0.745868 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>1.512397 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>158.000000 (у УП 0903030033_OP-21)</t>
   </si>
   <si>
     <t>26.540755 (у УП 1503040000_op-21)</t>
   </si>
   <si>
-    <t>453.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>45.029821 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>Минимальные значения:</t>
+    <t>151.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>36.124402 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>За какой курс</t>
+  </si>
+  <si>
+    <t>Название компетенции</t>
+  </si>
+  <si>
+    <t>Компетенция</t>
+  </si>
+  <si>
+    <t>Индекс</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Все курсы</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -626,63 +786,75 @@
       <c r="S1" t="s">
         <v>19</v>
       </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -694,114 +866,191 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>55</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>56</v>
       </c>
-      <c r="S3" t="s">
-        <v>57</v>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="T4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -809,14 +1058,390 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/spec/TotalData.xlsx
+++ b/result/spec/TotalData.xlsx
@@ -14,8 +14,9 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
-    <sheet name="0903030033_OP-21" sheetId="5" r:id="rId8"/>
-    <sheet name="1503040000_op-21" sheetId="6" r:id="rId9"/>
+    <sheet name="0903030033_OP-21" sheetId="6" r:id="rId9"/>
+    <sheet name="1005010034_OP-21" sheetId="7" r:id="rId10"/>
+    <sheet name="1503040000_op-21" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -154,6 +155,54 @@
     <t>26.076555%</t>
   </si>
   <si>
+    <t>1005010034_OP-21</t>
+  </si>
+  <si>
+    <t>334.000000</t>
+  </si>
+  <si>
+    <t>71.000000</t>
+  </si>
+  <si>
+    <t>340.000000</t>
+  </si>
+  <si>
+    <t>73.000000</t>
+  </si>
+  <si>
+    <t>11.000000</t>
+  </si>
+  <si>
+    <t>0.071856</t>
+  </si>
+  <si>
+    <t>2.000000</t>
+  </si>
+  <si>
+    <t>0.905689</t>
+  </si>
+  <si>
+    <t>1.598802</t>
+  </si>
+  <si>
+    <t>676.000000</t>
+  </si>
+  <si>
+    <t>49.815770%</t>
+  </si>
+  <si>
+    <t>353.000000</t>
+  </si>
+  <si>
+    <t>26.013265%</t>
+  </si>
+  <si>
+    <t>328.000000</t>
+  </si>
+  <si>
+    <t>24.170965%</t>
+  </si>
+  <si>
     <t>1503040000_op-21</t>
   </si>
   <si>
@@ -166,15 +215,9 @@
     <t>58.000000</t>
   </si>
   <si>
-    <t>11.000000</t>
-  </si>
-  <si>
     <t>0.075820</t>
   </si>
   <si>
-    <t>2.000000</t>
-  </si>
-  <si>
     <t>1.000000</t>
   </si>
   <si>
@@ -211,16 +254,16 @@
     <t>Максимальные значения:</t>
   </si>
   <si>
-    <t>244.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>52.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>276.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>58.000000 (у УП 1503040000_op-21)</t>
+    <t>334.000000 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>71.000000 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>340.000000 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>73.000000 (у УП 1005010034_OP-21)</t>
   </si>
   <si>
     <t>15.000000 (у УП 0903030033_OP-21)</t>
@@ -232,7 +275,7 @@
     <t>4.000000 (у УП 0903030033_OP-21)</t>
   </si>
   <si>
-    <t>0.766393 (у УП 1503040000_op-21)</t>
+    <t>0.905689 (у УП 1005010034_OP-21)</t>
   </si>
   <si>
     <t>3.973361 (у УП 1503040000_op-21)</t>
@@ -250,10 +293,10 @@
     <t>24.155070 (у УП 1503040000_op-21)</t>
   </si>
   <si>
-    <t>267.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>37.799043 (у УП 0903030033_OP-21)</t>
+    <t>676.000000 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>49.815770 (у УП 1005010034_OP-21)</t>
   </si>
   <si>
     <t>453.000000 (у УП 1503040000_op-21)</t>
@@ -262,55 +305,61 @@
     <t>45.029821 (у УП 1503040000_op-21)</t>
   </si>
   <si>
+    <t>328.000000 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>26.076555 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>Минимальные значения:</t>
+  </si>
+  <si>
+    <t>242.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>50.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>250.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>52.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>11.000000 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>0.071856 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>2.000000 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>1.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>0.745868 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>1.512397 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>158.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>26.540755 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>151.000000 (у УП 0903030033_OP-21)</t>
+  </si>
+  <si>
+    <t>26.013265 (у УП 1005010034_OP-21)</t>
+  </si>
+  <si>
     <t>109.000000 (у УП 0903030033_OP-21)</t>
   </si>
   <si>
-    <t>26.076555 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>Минимальные значения:</t>
-  </si>
-  <si>
-    <t>242.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>50.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>250.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>52.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>11.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>0.075820 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>2.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>1.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>0.745868 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>1.512397 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>158.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>26.540755 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>151.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>36.124402 (у УП 0903030033_OP-21)</t>
+    <t>24.170965 (у УП 1005010034_OP-21)</t>
   </si>
   <si>
     <t>За какой курс</t>
@@ -356,6 +405,39 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>18</t>
@@ -866,22 +948,22 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
@@ -893,382 +975,229 @@
         <v>48</v>
       </c>
       <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>69</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" t="s">
-        <v>74</v>
-      </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="s">
+      <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="E5" t="s">
+      <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>82</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>83</v>
       </c>
-      <c r="H5" t="s">
+      <c r="O5" t="s">
         <v>84</v>
       </c>
-      <c r="I5" t="s">
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="J5" t="s">
+      <c r="Q5" t="s">
         <v>86</v>
       </c>
-      <c r="K5" t="s">
+      <c r="R5" t="s">
         <v>87</v>
       </c>
-      <c r="L5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>89</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>90</v>
       </c>
-      <c r="S5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
-      <c r="T5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E6" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="G6" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H6" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="s">
+      <c r="J6" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
+      <c r="K6" t="s">
         <v>101</v>
       </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="s">
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
         <v>102</v>
       </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="s">
+      <c r="Q6" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="s">
+      <c r="R6" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="s">
+      <c r="S6" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="s">
+      <c r="T6" t="s">
         <v>106</v>
       </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
+      <c r="U6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1286,30 +1215,2532 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W4" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" t="s">
+        <v>115</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>114</v>
+      </c>
+      <c r="X5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" t="s">
+        <v>115</v>
+      </c>
+      <c r="W6" t="s">
+        <v>116</v>
+      </c>
+      <c r="X6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7" t="s">
+        <v>115</v>
+      </c>
+      <c r="X7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" t="s">
+        <v>115</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" t="s">
+        <v>115</v>
+      </c>
+      <c r="V10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" t="s">
+        <v>247</v>
+      </c>
+      <c r="S5" t="s">
+        <v>114</v>
+      </c>
+      <c r="W5" t="s">
+        <v>248</v>
+      </c>
+      <c r="X5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" t="s">
+        <v>116</v>
+      </c>
+      <c r="X6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" t="s">
+        <v>250</v>
+      </c>
+      <c r="S7" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" t="s">
+        <v>249</v>
+      </c>
+      <c r="X7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" t="s">
+        <v>116</v>
+      </c>
+      <c r="W9" t="s">
+        <v>252</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" t="s">
+        <v>246</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" t="s">
+        <v>116</v>
+      </c>
+      <c r="X14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="S16" t="s">
+        <v>115</v>
+      </c>
+      <c r="W16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" t="s">
+        <v>117</v>
+      </c>
+      <c r="S17" t="s">
+        <v>115</v>
+      </c>
+      <c r="W17" t="s">
+        <v>122</v>
+      </c>
+      <c r="X17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" t="s">
+        <v>118</v>
+      </c>
+      <c r="S19" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" t="s">
+        <v>116</v>
+      </c>
+      <c r="X19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20" t="s">
+        <v>116</v>
+      </c>
+      <c r="X20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="S21" t="s">
+        <v>115</v>
+      </c>
+      <c r="W21" t="s">
+        <v>115</v>
+      </c>
+      <c r="X21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" t="s">
+        <v>115</v>
+      </c>
+      <c r="S22" t="s">
+        <v>114</v>
+      </c>
+      <c r="X22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="I23" t="s">
+        <v>117</v>
+      </c>
+      <c r="S23" t="s">
+        <v>116</v>
+      </c>
+      <c r="W23" t="s">
+        <v>117</v>
+      </c>
+      <c r="X23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="s">
+        <v>247</v>
+      </c>
+      <c r="S24" t="s">
+        <v>115</v>
+      </c>
+      <c r="W24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="s">
+        <v>248</v>
+      </c>
+      <c r="R25" t="s">
+        <v>117</v>
+      </c>
+      <c r="S25" t="s">
+        <v>114</v>
+      </c>
+      <c r="X25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
+        <v>116</v>
+      </c>
+      <c r="X26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="S27" t="s">
+        <v>115</v>
+      </c>
+      <c r="V27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" t="s">
+        <v>119</v>
+      </c>
+      <c r="X27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="R28" t="s">
+        <v>119</v>
+      </c>
+      <c r="S28" t="s">
+        <v>114</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="S29" t="s">
+        <v>116</v>
+      </c>
+      <c r="X29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="S30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="S32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="S34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="S35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" t="s">
+        <v>122</v>
+      </c>
+      <c r="S36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="S38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1317,42 +3748,156 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>100</v>
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" t="s">
+        <v>118</v>
+      </c>
+      <c r="W4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>99</v>
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>103</v>
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" t="s">
+        <v>115</v>
+      </c>
+      <c r="W9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" t="s">
+        <v>117</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -1360,27 +3905,99 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>100</v>
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>114</v>
+      </c>
+      <c r="W12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>99</v>
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13" t="s">
+        <v>391</v>
+      </c>
+      <c r="W13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>392</v>
+      </c>
+      <c r="M14" t="s">
+        <v>391</v>
+      </c>
+      <c r="R14" t="s">
+        <v>392</v>
+      </c>
+      <c r="W14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>392</v>
+      </c>
+      <c r="R15" t="s">
+        <v>116</v>
+      </c>
+      <c r="W15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -1388,57 +4005,141 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>394</v>
+      </c>
+      <c r="M16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" t="s">
+        <v>393</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>214</v>
+        <v>391</v>
+      </c>
+      <c r="H17" t="s">
+        <v>395</v>
+      </c>
+      <c r="M17" t="s">
+        <v>395</v>
+      </c>
+      <c r="R17" t="s">
+        <v>394</v>
+      </c>
+      <c r="W17" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>215</v>
+        <v>392</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" t="s">
+        <v>115</v>
+      </c>
+      <c r="W18" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>100</v>
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" t="s">
+        <v>117</v>
+      </c>
+      <c r="W19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>216</v>
+        <v>393</v>
+      </c>
+      <c r="M20" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" t="s">
+        <v>118</v>
+      </c>
+      <c r="W20" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>217</v>
+        <v>394</v>
+      </c>
+      <c r="M21" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" t="s">
+        <v>119</v>
+      </c>
+      <c r="W21" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>218</v>
+        <v>395</v>
+      </c>
+      <c r="W22" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="s">
-        <v>99</v>
+        <v>115</v>
+      </c>
+      <c r="W23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+      <c r="W24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="W25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>103</v>
+        <v>119</v>
+      </c>
+      <c r="W26" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/result/spec/TotalData.xlsx
+++ b/result/spec/TotalData.xlsx
@@ -14,9 +14,9 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
-    <sheet name="0903030033_OP-21" sheetId="6" r:id="rId9"/>
-    <sheet name="1005010034_OP-21" sheetId="7" r:id="rId10"/>
-    <sheet name="1503040000_op-21" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030033_OP-21" sheetId="3" r:id="rId6"/>
+    <sheet name="1005010034_OP-21" sheetId="4" r:id="rId7"/>
+    <sheet name="1503040000_op-21" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -365,16 +365,16 @@
     <t>За какой курс</t>
   </si>
   <si>
-    <t>Название компетенции</t>
+    <t>Заголовок компетенции</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Компетенция</t>
   </si>
   <si>
     <t>Индекс</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>Все курсы</t>
@@ -1205,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1227,67 +1227,97 @@
         <v>111</v>
       </c>
       <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>111</v>
       </c>
-      <c r="O1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
-      </c>
-      <c r="S1" t="s">
-        <v>111</v>
       </c>
       <c r="T1" t="s">
         <v>112</v>
       </c>
       <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>109</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>110</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" t="s">
         <v>112</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -1297,506 +1327,956 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
+      <c r="C2">
+        <v>0.37799043062200954</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="E2">
+        <v>0.20886075949367089</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" t="s">
-        <v>115</v>
+      <c r="J2">
+        <v>0.74698795180722888</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2">
+        <v>0.37096774193548387</v>
+      </c>
+      <c r="M2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>0.71134020618556704</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2">
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="T2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="X2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AD2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" t="s">
-        <v>115</v>
+      <c r="AE2">
+        <v>0.17197452229299362</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
       <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="E3">
+        <v>0.189873417721519</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3">
+        <v>0.11290322580645161</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" t="s">
-        <v>115</v>
+        <v>115</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
       <c r="R3" t="s">
         <v>116</v>
       </c>
-      <c r="S3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" t="s">
-        <v>115</v>
-      </c>
-      <c r="X3" t="s">
-        <v>115</v>
+      <c r="S3">
+        <v>0.20289855072463769</v>
+      </c>
+      <c r="T3" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z3">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
       <c r="D4" t="s">
         <v>115</v>
       </c>
-      <c r="H4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" t="s">
-        <v>115</v>
+      <c r="E4">
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4">
+        <v>0.12903225806451613</v>
       </c>
       <c r="M4" t="s">
         <v>115</v>
       </c>
-      <c r="N4" t="s">
-        <v>115</v>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="R4" t="s">
         <v>115</v>
       </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="S4">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="T4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z4">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
         <v>119</v>
       </c>
-      <c r="X4" t="s">
-        <v>115</v>
+      <c r="AG4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>117</v>
       </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5">
+        <v>0.082278481012658222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>117</v>
       </c>
-      <c r="I5" t="s">
-        <v>115</v>
+      <c r="L5">
+        <v>0.080645161290322578</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" t="s">
-        <v>115</v>
+        <v>115</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
       <c r="R5" t="s">
         <v>117</v>
       </c>
-      <c r="S5" t="s">
-        <v>115</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="S5">
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="T5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z5">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
         <v>19</v>
       </c>
-      <c r="W5" t="s">
-        <v>114</v>
-      </c>
-      <c r="X5" t="s">
-        <v>115</v>
+      <c r="AE5">
+        <v>0.54140127388535031</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>118</v>
       </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6">
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="I6" t="s">
-        <v>115</v>
+      <c r="L6">
+        <v>0.096774193548387094</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" t="s">
-        <v>115</v>
+        <v>115</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
       </c>
       <c r="R6" t="s">
         <v>118</v>
       </c>
-      <c r="S6" t="s">
-        <v>115</v>
-      </c>
-      <c r="W6" t="s">
-        <v>116</v>
-      </c>
-      <c r="X6" t="s">
-        <v>115</v>
+      <c r="S6">
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="T6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z6">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG6">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7">
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>119</v>
       </c>
-      <c r="I7" t="s">
-        <v>115</v>
+      <c r="L7">
+        <v>0.11290322580645161</v>
       </c>
       <c r="M7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
         <v>120</v>
       </c>
-      <c r="N7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7">
+        <v>0.057971014492753624</v>
+      </c>
+      <c r="T7" t="s">
+        <v>115</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
         <v>21</v>
       </c>
-      <c r="R7" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" t="s">
-        <v>115</v>
-      </c>
-      <c r="W7" t="s">
-        <v>115</v>
-      </c>
-      <c r="X7" t="s">
-        <v>115</v>
+      <c r="X7">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E8">
+        <v>0.063291139240506333</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>120</v>
       </c>
-      <c r="I8" t="s">
-        <v>115</v>
+      <c r="L8">
+        <v>0.096774193548387094</v>
       </c>
       <c r="M8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>121</v>
       </c>
-      <c r="N8" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" t="s">
-        <v>116</v>
-      </c>
-      <c r="S8" t="s">
-        <v>115</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="S8">
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="T8" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
         <v>117</v>
       </c>
-      <c r="X8" t="s">
-        <v>115</v>
+      <c r="AG8">
+        <v>0.14117647058823529</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9">
+        <v>0.050632911392405063</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" t="s">
-        <v>115</v>
+      <c r="J9">
+        <v>0.25301204819277107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9">
+        <v>0.2857142857142857</v>
       </c>
       <c r="M9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
         <v>122</v>
       </c>
-      <c r="N9" t="s">
-        <v>115</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="T9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
         <v>117</v>
       </c>
-      <c r="S9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="Z9">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
         <v>118</v>
       </c>
-      <c r="X9" t="s">
-        <v>115</v>
+      <c r="AG9">
+        <v>0.22352941176470589</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="E10">
+        <v>0.075949367088607597</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
+      <c r="Q10">
+        <v>0.28865979381443296</v>
       </c>
       <c r="R10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="T10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
         <v>120</v>
       </c>
-      <c r="S10" t="s">
-        <v>115</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="Z10">
+        <v>0.066666666666666666</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
         <v>21</v>
       </c>
-      <c r="W10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" t="s">
-        <v>115</v>
+      <c r="AE10">
+        <v>0.28662420382165604</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG10">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>114</v>
+      <c r="C11">
+        <v>0.36124401913875598</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11">
+        <v>0.18543046357615894</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>117</v>
       </c>
-      <c r="I11" t="s">
-        <v>115</v>
+      <c r="L11">
+        <v>0.33333333333333331</v>
       </c>
       <c r="M11" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
-      </c>
-      <c r="W11" t="s">
-        <v>116</v>
-      </c>
-      <c r="X11" t="s">
-        <v>115</v>
+        <v>115</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11">
+        <v>0.25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG11">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
       <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>0.12582781456953643</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>118</v>
       </c>
-      <c r="I12" t="s">
-        <v>115</v>
+      <c r="L12">
+        <v>0.19047619047619047</v>
       </c>
       <c r="M12" t="s">
         <v>115</v>
       </c>
-      <c r="N12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X12" t="s">
-        <v>115</v>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG12">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
       <c r="D13" t="s">
         <v>115</v>
       </c>
-      <c r="H13" t="s">
+      <c r="E13">
+        <v>0.29801324503311261</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>120</v>
       </c>
-      <c r="I13" t="s">
-        <v>115</v>
+      <c r="L13">
+        <v>0.047619047619047616</v>
       </c>
       <c r="M13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
         <v>117</v>
       </c>
-      <c r="N13" t="s">
-        <v>115</v>
+      <c r="S13">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="T13" t="s">
+        <v>115</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>117</v>
       </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="E14">
+        <v>0.25165562913907286</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
         <v>118</v>
       </c>
-      <c r="N14" t="s">
-        <v>115</v>
+      <c r="S14">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="T14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>118</v>
       </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="E15">
+        <v>0.13907284768211919</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
         <v>119</v>
       </c>
-      <c r="N15" t="s">
-        <v>115</v>
+      <c r="S15">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="T15" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>114</v>
+      <c r="C16">
+        <v>0.26076555023923442</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16">
+        <v>0.28440366972477066</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
         <v>121</v>
       </c>
-      <c r="N16" t="s">
-        <v>115</v>
+      <c r="S16">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="T16" t="s">
+        <v>115</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>0.22018348623853212</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
       <c r="D18" t="s">
         <v>115</v>
       </c>
+      <c r="E18">
+        <v>0.22018348623853212</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>117</v>
       </c>
-      <c r="D19" t="s">
-        <v>115</v>
+      <c r="E19">
+        <v>0.13761467889908258</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="D20" t="s">
-        <v>115</v>
+      <c r="E20">
+        <v>0.064220183486238536</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>119</v>
       </c>
-      <c r="D21" t="s">
-        <v>115</v>
+      <c r="E21">
+        <v>0.027522935779816515</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>120</v>
       </c>
-      <c r="D22" t="s">
-        <v>115</v>
+      <c r="E22">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>121</v>
       </c>
-      <c r="D23" t="s">
-        <v>115</v>
+      <c r="E23">
+        <v>0.027522935779816515</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1826,97 +2306,139 @@
         <v>111</v>
       </c>
       <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>111</v>
       </c>
-      <c r="O1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
-      </c>
-      <c r="S1" t="s">
-        <v>111</v>
       </c>
       <c r="T1" t="s">
         <v>112</v>
       </c>
       <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>109</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>110</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" t="s">
         <v>112</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>109</v>
       </c>
       <c r="AB1" t="s">
         <v>110</v>
       </c>
       <c r="AC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" t="s">
         <v>111</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>109</v>
       </c>
       <c r="AG1" t="s">
         <v>110</v>
       </c>
       <c r="AH1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" t="s">
         <v>112</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -1926,1684 +2448,3154 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
+      <c r="C2">
+        <v>0.49815770081061167</v>
       </c>
       <c r="D2" t="s">
         <v>114</v>
       </c>
+      <c r="E2">
+        <v>0.097633136094674555</v>
+      </c>
       <c r="F2" t="s">
         <v>114</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" t="s">
-        <v>114</v>
+      <c r="J2">
+        <v>0.74561403508771928</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2">
+        <v>0.31764705882352939</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="O2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>0.62135922330097082</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2">
+        <v>0.046875</v>
+      </c>
+      <c r="T2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="X2">
+        <v>0.47407407407407409</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2">
+        <v>0.234375</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AD2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
-        <v>114</v>
-      </c>
-      <c r="X2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AE2">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2">
+        <v>0.03125</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AK2" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AL2">
+        <v>0.21224489795918366</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN2">
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>119</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AR2" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>114</v>
+      <c r="AS2">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU2">
+        <v>0.057142857142857141</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>116</v>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3">
+        <v>0.30303030303030304</v>
       </c>
       <c r="M3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N3" t="s">
-        <v>116</v>
-      </c>
-      <c r="S3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" t="s">
-        <v>246</v>
-      </c>
-      <c r="X3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="N3">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="R3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3">
+        <v>0.40625</v>
+      </c>
+      <c r="T3" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB3">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG3">
+        <v>0.10416666666666667</v>
       </c>
       <c r="AH3" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="AI3">
+        <v>0.5</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3">
+        <v>0.5</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW3">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
-      <c r="X4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>116</v>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="T4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB4">
+        <v>0.26666666666666666</v>
       </c>
       <c r="AH4" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AI4">
+        <v>0.5</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN4">
+        <v>0.096153846153846159</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW4">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0.065088757396449703</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5">
+        <v>0.035294117647058823</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>119</v>
       </c>
-      <c r="R5" t="s">
-        <v>247</v>
-      </c>
-      <c r="S5" t="s">
-        <v>114</v>
-      </c>
-      <c r="W5" t="s">
-        <v>248</v>
-      </c>
-      <c r="X5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>246</v>
+      <c r="U5">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z5">
+        <v>0.125</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB5">
+        <v>0.5</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG5">
+        <v>0.10416666666666667</v>
       </c>
       <c r="AH5" t="s">
         <v>114</v>
       </c>
+      <c r="AI5">
+        <v>0.5</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN5">
+        <v>0.076923076923076927</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU5">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6">
+        <v>0.31764705882352939</v>
+      </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="T6" t="s">
         <v>120</v>
       </c>
-      <c r="S6" t="s">
-        <v>116</v>
-      </c>
-      <c r="X6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>248</v>
+      <c r="U6">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB6">
+        <v>0.5</v>
       </c>
       <c r="AH6" t="s">
         <v>116</v>
       </c>
+      <c r="AI6">
+        <v>0.5</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN6">
+        <v>0.057692307692307696</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
-      <c r="C7" t="s">
-        <v>247</v>
-      </c>
       <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7">
+        <v>0.029585798816568046</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="T7" t="s">
         <v>121</v>
       </c>
-      <c r="R7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S7" t="s">
-        <v>114</v>
-      </c>
-      <c r="W7" t="s">
-        <v>249</v>
-      </c>
-      <c r="X7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="U7">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z7">
+        <v>0.046875</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI7">
+        <v>0.5</v>
+      </c>
+      <c r="AM7" t="s">
         <v>118</v>
       </c>
-      <c r="AC7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>114</v>
+      <c r="AN7">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP7">
+        <v>0.5</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU7">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
       </c>
       <c r="M8" t="s">
         <v>117</v>
       </c>
-      <c r="N8" t="s">
-        <v>114</v>
+      <c r="N8">
+        <v>0.18518518518518517</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
-      </c>
-      <c r="S8" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="S8">
+        <v>0.125</v>
+      </c>
+      <c r="T8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z8">
+        <v>0.140625</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8">
+        <v>0.55555555555555558</v>
       </c>
       <c r="AH8" t="s">
         <v>116</v>
       </c>
+      <c r="AI8">
+        <v>0.5</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP8">
+        <v>0.5</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
-      <c r="C9" t="s">
-        <v>248</v>
-      </c>
       <c r="D9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>0.032544378698224852</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="M9" t="s">
         <v>118</v>
       </c>
-      <c r="N9" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" t="s">
-        <v>116</v>
-      </c>
-      <c r="W9" t="s">
-        <v>252</v>
-      </c>
-      <c r="X9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="N9">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="T9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB9">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG9">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI9">
+        <v>0.5</v>
+      </c>
+      <c r="AM9" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>114</v>
+      <c r="AN9">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP9">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU9">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="I10" t="s">
-        <v>114</v>
+      <c r="L10">
+        <v>0.047058823529411764</v>
       </c>
       <c r="M10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
         <v>120</v>
       </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="R10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>116</v>
+      <c r="S10">
+        <v>0.421875</v>
+      </c>
+      <c r="T10" t="s">
+        <v>114</v>
+      </c>
+      <c r="U10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z10">
+        <v>0.234375</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB10">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH10" t="s">
         <v>116</v>
       </c>
+      <c r="AI10">
+        <v>0.5</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP10">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
-      <c r="C11" t="s">
-        <v>249</v>
-      </c>
       <c r="D11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="s">
         <v>120</v>
       </c>
-      <c r="I11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" t="s">
-        <v>116</v>
-      </c>
-      <c r="S11" t="s">
-        <v>246</v>
-      </c>
-      <c r="W11" t="s">
-        <v>115</v>
-      </c>
-      <c r="X11" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="L11">
+        <v>0.28235294117647058</v>
+      </c>
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB11">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG11">
+        <v>0.052083333333333336</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="s">
         <v>121</v>
       </c>
-      <c r="AC11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>114</v>
+      <c r="AN11">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU11">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s">
-        <v>115</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA12" t="s">
         <v>120</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AB12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF12" t="s">
         <v>117</v>
       </c>
-      <c r="X12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AG12">
+        <v>0.052083333333333336</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="s">
         <v>19</v>
       </c>
-      <c r="AB12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>116</v>
+      <c r="AL12">
+        <v>0.67755102040816328</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN12">
+        <v>0.15662650602409639</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP12">
+        <v>0.5</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s">
-        <v>250</v>
-      </c>
       <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0.029585798816568046</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="M13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P13" t="s">
         <v>19</v>
       </c>
-      <c r="M13" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" t="s">
-        <v>114</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="Q13">
+        <v>0.058252427184466021</v>
+      </c>
+      <c r="R13" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>114</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="AA13" t="s">
         <v>122</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AB13">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AF13" t="s">
         <v>120</v>
       </c>
-      <c r="X13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>250</v>
+      <c r="AG13">
+        <v>0.1875</v>
       </c>
       <c r="AH13" t="s">
         <v>114</v>
       </c>
+      <c r="AI13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP13">
+        <v>0.5</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU13">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
-        <v>246</v>
-      </c>
-      <c r="I14" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" t="s">
-        <v>116</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="J14">
+        <v>0.25438596491228072</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14">
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="M14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+      <c r="T14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="Y14" t="s">
         <v>117</v>
       </c>
-      <c r="S14" t="s">
-        <v>116</v>
-      </c>
-      <c r="X14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>114</v>
+      <c r="Z14">
+        <v>0.09375</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
       </c>
       <c r="AH14" t="s">
         <v>116</v>
       </c>
+      <c r="AI14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN14">
+        <v>0.13253012048192772</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP14">
+        <v>0.5</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
-      <c r="C15" t="s">
-        <v>251</v>
-      </c>
       <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>0.014792899408284023</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="P15" t="s">
         <v>21</v>
       </c>
-      <c r="M15" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" t="s">
-        <v>114</v>
+      <c r="Q15">
+        <v>0.32038834951456313</v>
       </c>
       <c r="R15" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="T15" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y15" t="s">
         <v>122</v>
       </c>
-      <c r="S15" t="s">
-        <v>114</v>
-      </c>
-      <c r="X15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>251</v>
+      <c r="Z15">
+        <v>0.125</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB15">
+        <v>0.375</v>
       </c>
       <c r="AH15" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AI15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP15">
+        <v>0.5</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU15">
+        <v>0.019047619047619049</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="s">
-        <v>252</v>
-      </c>
       <c r="D16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" t="s">
-        <v>116</v>
-      </c>
-      <c r="S16" t="s">
-        <v>115</v>
-      </c>
-      <c r="W16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16">
+        <v>0.04142011834319527</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>116</v>
+      </c>
+      <c r="U16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB16">
+        <v>0.625</v>
+      </c>
+      <c r="AF16" t="s">
         <v>121</v>
       </c>
-      <c r="X16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>252</v>
+      <c r="AG16">
+        <v>0.0625</v>
       </c>
       <c r="AH16" t="s">
         <v>114</v>
       </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN16">
+        <v>0.24096385542168675</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU16">
+        <v>0.057142857142857141</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="17">
-      <c r="D17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="K17" t="s">
         <v>117</v>
       </c>
-      <c r="I17" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="L17">
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T17" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W17" t="s">
         <v>19</v>
       </c>
-      <c r="R17" t="s">
+      <c r="X17">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y17" t="s">
         <v>117</v>
       </c>
-      <c r="S17" t="s">
-        <v>115</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="Z17">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB17">
+        <v>0.5</v>
+      </c>
+      <c r="AF17" t="s">
         <v>122</v>
       </c>
-      <c r="X17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>116</v>
+      <c r="AG17">
+        <v>0.15625</v>
       </c>
       <c r="AH17" t="s">
         <v>116</v>
       </c>
+      <c r="AI17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP17">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW17">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="18">
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" t="s">
-        <v>116</v>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18">
+        <v>0.21428571428571427</v>
       </c>
       <c r="M18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R18" t="s">
         <v>117</v>
       </c>
-      <c r="N18" t="s">
-        <v>114</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="S18">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="T18" t="s">
+        <v>114</v>
+      </c>
+      <c r="U18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA18" t="s">
         <v>117</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AB18">
+        <v>0.5</v>
+      </c>
+      <c r="AH18" t="s">
         <v>117</v>
       </c>
-      <c r="AC18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>115</v>
+      <c r="AI18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP18">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW18">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="s">
-        <v>253</v>
-      </c>
       <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" t="s">
-        <v>115</v>
-      </c>
-      <c r="N19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19">
+        <v>0.013313609467455622</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T19" t="s">
+        <v>116</v>
+      </c>
+      <c r="U19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y19" t="s">
         <v>118</v>
       </c>
-      <c r="S19" t="s">
-        <v>114</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="Z19">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD19" t="s">
         <v>19</v>
       </c>
-      <c r="W19" t="s">
-        <v>116</v>
-      </c>
-      <c r="X19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AE19">
+        <v>0.22794117647058823</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG19">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI19">
+        <v>0.5</v>
+      </c>
+      <c r="AO19" t="s">
         <v>117</v>
       </c>
-      <c r="AG19" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>114</v>
+      <c r="AP19">
+        <v>0.074999999999999997</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU19">
+        <v>0.019047619047619049</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
       <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>0.031065088757396449</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="K20" t="s">
         <v>118</v>
       </c>
-      <c r="I20" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" t="s">
-        <v>115</v>
-      </c>
-      <c r="S20" t="s">
-        <v>116</v>
-      </c>
-      <c r="X20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="L20">
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="M20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20">
+        <v>0.5</v>
+      </c>
+      <c r="T20" t="s">
+        <v>115</v>
+      </c>
+      <c r="U20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI20">
+        <v>0.5</v>
+      </c>
+      <c r="AO20" t="s">
         <v>118</v>
       </c>
-      <c r="AG20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>114</v>
+      <c r="AP20">
+        <v>0.074999999999999997</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU20">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW20">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" t="s">
-        <v>116</v>
-      </c>
-      <c r="S21" t="s">
-        <v>115</v>
-      </c>
-      <c r="W21" t="s">
-        <v>115</v>
-      </c>
-      <c r="X21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="M21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21">
+        <v>0.5</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG21">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI21">
+        <v>0.5</v>
+      </c>
+      <c r="AO21" t="s">
         <v>119</v>
       </c>
-      <c r="AH21" t="s">
-        <v>116</v>
+      <c r="AP21">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW21">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s">
-        <v>115</v>
-      </c>
       <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>0.21893491124260356</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22">
+        <v>0.074324324324324328</v>
+      </c>
+      <c r="K22" t="s">
         <v>120</v>
       </c>
-      <c r="I22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="L22">
+        <v>0.068965517241379309</v>
+      </c>
+      <c r="M22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22">
+        <v>0.5</v>
+      </c>
+      <c r="W22" t="s">
         <v>21</v>
       </c>
-      <c r="R22" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" t="s">
-        <v>114</v>
-      </c>
-      <c r="X22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="X22">
+        <v>0.4148148148148148</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z22">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB22">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI22">
+        <v>0.5</v>
+      </c>
+      <c r="AM22" t="s">
         <v>117</v>
       </c>
-      <c r="AC22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>114</v>
+      <c r="AN22">
+        <v>0.072289156626506021</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP22">
+        <v>0.25</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU22">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW22">
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="s">
-        <v>246</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23">
+        <v>0.054054054054054057</v>
+      </c>
+      <c r="M23" t="s">
         <v>117</v>
       </c>
-      <c r="S23" t="s">
-        <v>116</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF23" t="s">
         <v>117</v>
       </c>
-      <c r="X23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>116</v>
+      <c r="AG23">
+        <v>0.096774193548387094</v>
       </c>
       <c r="AH23" t="s">
-        <v>246</v>
+        <v>115</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP23">
+        <v>0.25</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW23">
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="s">
-        <v>247</v>
-      </c>
-      <c r="S24" t="s">
-        <v>115</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24">
+        <v>0.074324324324324328</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF24" t="s">
         <v>118</v>
       </c>
-      <c r="X24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>115</v>
+      <c r="AG24">
+        <v>0.38709677419354838</v>
       </c>
       <c r="AH24" t="s">
-        <v>247</v>
+        <v>114</v>
+      </c>
+      <c r="AI24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP24">
+        <v>0.25</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW24">
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="s">
-        <v>248</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25">
+        <v>0.060810810810810814</v>
+      </c>
+      <c r="Y25" t="s">
         <v>117</v>
       </c>
-      <c r="S25" t="s">
-        <v>114</v>
-      </c>
-      <c r="X25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="Z25">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO25" t="s">
         <v>117</v>
       </c>
-      <c r="AH25" t="s">
-        <v>248</v>
+      <c r="AP25">
+        <v>0.25</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW25">
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26" t="s">
-        <v>116</v>
-      </c>
-      <c r="X26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26">
+        <v>0.16891891891891891</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM26" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>116</v>
+      <c r="AN26">
+        <v>0.39759036144578314</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW26">
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="S27" t="s">
-        <v>115</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27">
+        <v>0.12162162162162163</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD27" t="s">
         <v>21</v>
       </c>
-      <c r="W27" t="s">
+      <c r="AE27">
+        <v>0.066176470588235295</v>
+      </c>
+      <c r="AF27" t="s">
         <v>119</v>
       </c>
-      <c r="X27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>116</v>
+      <c r="AG27">
+        <v>1</v>
       </c>
       <c r="AH27" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="AI27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW27">
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>117</v>
       </c>
-      <c r="R28" t="s">
+      <c r="G28">
+        <v>0.074324324324324328</v>
+      </c>
+      <c r="Y28" t="s">
         <v>119</v>
       </c>
-      <c r="S28" t="s">
-        <v>114</v>
-      </c>
-      <c r="X28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>115</v>
+      <c r="Z28">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB28">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV28" t="s">
         <v>117</v>
       </c>
+      <c r="AW28">
+        <v>0.083333333333333329</v>
+      </c>
     </row>
     <row r="29">
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>118</v>
       </c>
-      <c r="S29" t="s">
-        <v>116</v>
-      </c>
-      <c r="X29" t="s">
-        <v>115</v>
+      <c r="G29">
+        <v>0.074324324324324328</v>
       </c>
       <c r="AA29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK29" t="s">
         <v>21</v>
       </c>
-      <c r="AB29" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH29" t="s">
+      <c r="AL29">
+        <v>0.11020408163265306</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV29" t="s">
         <v>118</v>
       </c>
+      <c r="AW29">
+        <v>0.083333333333333329</v>
+      </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>119</v>
       </c>
-      <c r="S30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH30" t="s">
+      <c r="G30">
+        <v>0.067567567567567571</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV30" t="s">
         <v>119</v>
       </c>
+      <c r="AW30">
+        <v>0.083333333333333329</v>
+      </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>120</v>
       </c>
-      <c r="R31" t="s">
+      <c r="G31">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="Y31" t="s">
         <v>120</v>
       </c>
-      <c r="S31" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="Z31">
+        <v>0.035714285714285712</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV31" t="s">
         <v>120</v>
       </c>
+      <c r="AW31">
+        <v>0.083333333333333329</v>
+      </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>121</v>
       </c>
-      <c r="S32" t="s">
+      <c r="G32">
+        <v>0.060810810810810814</v>
+      </c>
+      <c r="AA32" t="s">
         <v>117</v>
       </c>
-      <c r="AB32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="AB32">
+        <v>0.5</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN32">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP32">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV32" t="s">
         <v>121</v>
       </c>
+      <c r="AW32">
+        <v>0.083333333333333329</v>
+      </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>122</v>
       </c>
-      <c r="R33" t="s">
+      <c r="G33">
+        <v>0.060810810810810814</v>
+      </c>
+      <c r="Y33" t="s">
         <v>121</v>
       </c>
-      <c r="S33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH33" t="s">
+      <c r="Z33">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV33" t="s">
         <v>122</v>
       </c>
+      <c r="AW33">
+        <v>0.083333333333333329</v>
+      </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="S34" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG34" t="s">
+      <c r="E34">
+        <v>0.051775147928994084</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT34" t="s">
         <v>117</v>
       </c>
-      <c r="AH34" t="s">
-        <v>114</v>
+      <c r="AU34">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW34">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
-        <v>116</v>
-      </c>
-      <c r="S35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>116</v>
+      <c r="F35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB35">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN35">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP35">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW35">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
-        <v>254</v>
-      </c>
       <c r="D36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36">
+        <v>0.017751479289940829</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
-      <c r="S36" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>114</v>
+      <c r="Z36">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU36">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW36">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="S37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>116</v>
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37">
+        <v>0.5</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB37">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP37">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW37">
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="s">
-        <v>255</v>
-      </c>
       <c r="D38" t="s">
-        <v>114</v>
-      </c>
-      <c r="S38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="E38">
+        <v>0.017751479289940829</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB38">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU38">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>116</v>
+      <c r="F39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW39">
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="s">
-        <v>256</v>
-      </c>
       <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="E40">
+        <v>0.017751479289940829</v>
+      </c>
+      <c r="F40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU40">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW40">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>116</v>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW41">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>118</v>
       </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG42" t="s">
+      <c r="E42">
+        <v>0.026627218934911243</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="AT42" t="s">
         <v>118</v>
       </c>
-      <c r="AH42" t="s">
-        <v>114</v>
+      <c r="AU42">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW42">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>116</v>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW43">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>119</v>
       </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG44" t="s">
+      <c r="E44">
+        <v>0.032544378698224852</v>
+      </c>
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="AT44" t="s">
         <v>119</v>
       </c>
-      <c r="AH44" t="s">
-        <v>114</v>
+      <c r="AU44">
+        <v>0.038095238095238099</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW44">
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>116</v>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW45">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>120</v>
       </c>
-      <c r="D46" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG46" t="s">
+      <c r="E46">
+        <v>0.128698224852071</v>
+      </c>
+      <c r="F46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT46" t="s">
         <v>120</v>
       </c>
-      <c r="AH46" t="s">
-        <v>114</v>
+      <c r="AU46">
+        <v>0.057142857142857141</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW46">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="47">
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>116</v>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW47">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="48">
-      <c r="D48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>115</v>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW48">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>121</v>
       </c>
-      <c r="D49" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG49" t="s">
+      <c r="E49">
+        <v>0.02514792899408284</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="s">
         <v>121</v>
       </c>
-      <c r="AH49" t="s">
-        <v>114</v>
+      <c r="AU49">
+        <v>0.028571428571428571</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>122</v>
       </c>
-      <c r="D50" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG50" t="s">
+      <c r="E50">
+        <v>0.069526627218934905</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50">
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="AT50" t="s">
         <v>122</v>
       </c>
-      <c r="AH50" t="s">
-        <v>114</v>
+      <c r="AU50">
+        <v>0.076190476190476197</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW50">
+        <v>0.25</v>
       </c>
     </row>
     <row r="51">
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>116</v>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW51">
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
-      <c r="D52" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>115</v>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52">
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW52">
+        <v>0.25</v>
       </c>
     </row>
     <row r="53">
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>117</v>
       </c>
-      <c r="AH53" t="s">
+      <c r="G53">
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="AV53" t="s">
         <v>117</v>
+      </c>
+      <c r="AW53">
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
         <v>19</v>
       </c>
-      <c r="C54" t="s">
-        <v>114</v>
+      <c r="C54">
+        <v>0.26013264554163595</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="E54">
+        <v>0.13314447592067988</v>
+      </c>
+      <c r="F54" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54">
+        <v>0.46808510638297873</v>
+      </c>
+      <c r="AR54" t="s">
         <v>19</v>
       </c>
-      <c r="AG54" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>114</v>
+      <c r="AS54">
+        <v>0.21634615384615385</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU54">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW54">
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>116</v>
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55">
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW55">
+        <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="56">
-      <c r="C56" t="s">
-        <v>116</v>
-      </c>
       <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="E56">
+        <v>0.1359773371104816</v>
+      </c>
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU56">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW56">
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>116</v>
+      <c r="F57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW57">
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
-      <c r="C58" t="s">
-        <v>115</v>
-      </c>
       <c r="D58" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E58">
+        <v>0.28045325779036828</v>
+      </c>
+      <c r="F58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58">
+        <v>0.19191919191919191</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU58">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW58">
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="59">
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>116</v>
+      <c r="F59" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW59">
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>115</v>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60">
+        <v>0.17171717171717171</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW60">
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="61">
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>117</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="G61">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="AV61" t="s">
         <v>117</v>
       </c>
+      <c r="AW61">
+        <v>0.17647058823529413</v>
+      </c>
     </row>
     <row r="62">
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>118</v>
       </c>
-      <c r="AH62" t="s">
+      <c r="G62">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="AV62" t="s">
         <v>118</v>
       </c>
+      <c r="AW62">
+        <v>0.17647058823529413</v>
+      </c>
     </row>
     <row r="63">
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="AH63" t="s">
+      <c r="G63">
+        <v>0.17171717171717171</v>
+      </c>
+      <c r="AV63" t="s">
         <v>119</v>
       </c>
+      <c r="AW63">
+        <v>0.17647058823529413</v>
+      </c>
     </row>
     <row r="64">
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>117</v>
       </c>
-      <c r="D64" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG64" t="s">
+      <c r="E64">
+        <v>0.15297450424929179</v>
+      </c>
+      <c r="F64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AT64" t="s">
         <v>117</v>
       </c>
-      <c r="AH64" t="s">
-        <v>114</v>
+      <c r="AU64">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW64">
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>116</v>
+      <c r="F65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW65">
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>115</v>
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW66">
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="67">
-      <c r="D67" t="s">
+      <c r="F67" t="s">
         <v>117</v>
       </c>
-      <c r="AH67" t="s">
+      <c r="G67">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AV67" t="s">
         <v>117</v>
       </c>
+      <c r="AW67">
+        <v>0.27272727272727271</v>
+      </c>
     </row>
     <row r="68">
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>118</v>
       </c>
-      <c r="D68" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG68" t="s">
+      <c r="E68">
+        <v>0.29745042492917845</v>
+      </c>
+      <c r="F68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT68" t="s">
         <v>118</v>
       </c>
-      <c r="AH68" t="s">
-        <v>114</v>
+      <c r="AU68">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW68">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="69">
-      <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>116</v>
+      <c r="F69" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW69">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>115</v>
+      <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW70">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C71" t="s">
-        <v>114</v>
+      <c r="C71">
+        <v>0.2417096536477524</v>
       </c>
       <c r="D71" t="s">
         <v>114</v>
       </c>
-      <c r="AF71" t="s">
+      <c r="E71">
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="F71" t="s">
+        <v>114</v>
+      </c>
+      <c r="G71">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR71" t="s">
         <v>21</v>
       </c>
-      <c r="AG71" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>114</v>
+      <c r="AS71">
+        <v>0.27884615384615385</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU71">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW71">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>116</v>
+      <c r="F72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW72">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>115</v>
+      <c r="F73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW73">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="74">
-      <c r="C74" t="s">
-        <v>246</v>
-      </c>
       <c r="D74" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="E74">
+        <v>0.054878048780487805</v>
+      </c>
+      <c r="F74" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74">
+        <v>0.5</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU74">
+        <v>0.068965517241379309</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW74">
+        <v>0.5</v>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH75" t="s">
-        <v>116</v>
+      <c r="F75" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW75">
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
-      <c r="C76" t="s">
-        <v>116</v>
-      </c>
       <c r="D76" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="E76">
+        <v>0.091463414634146339</v>
+      </c>
+      <c r="F76" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU76">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW76">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>116</v>
+      <c r="F77" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW77">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="78">
-      <c r="D78" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH78" t="s">
-        <v>115</v>
+      <c r="F78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW78">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="79">
-      <c r="C79" t="s">
-        <v>115</v>
-      </c>
       <c r="D79" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH79" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E79">
+        <v>0.11890243902439024</v>
+      </c>
+      <c r="F79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G79">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU79">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW79">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH80" t="s">
-        <v>116</v>
+      <c r="F80" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW80">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH81" t="s">
-        <v>115</v>
+      <c r="F81" t="s">
+        <v>115</v>
+      </c>
+      <c r="G81">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW81">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="82">
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>117</v>
       </c>
-      <c r="D82" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG82" t="s">
+      <c r="E82">
+        <v>0.20121951219512196</v>
+      </c>
+      <c r="F82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT82" t="s">
         <v>117</v>
       </c>
-      <c r="AH82" t="s">
-        <v>114</v>
+      <c r="AU82">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW82">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>116</v>
+      <c r="F83" t="s">
+        <v>116</v>
+      </c>
+      <c r="G83">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW83">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH84" t="s">
-        <v>115</v>
+      <c r="F84" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW84">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="85">
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>118</v>
       </c>
-      <c r="D85" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG85" t="s">
+      <c r="E85">
+        <v>0.054878048780487805</v>
+      </c>
+      <c r="F85" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85">
+        <v>0.5</v>
+      </c>
+      <c r="AT85" t="s">
         <v>118</v>
       </c>
-      <c r="AH85" t="s">
-        <v>114</v>
+      <c r="AU85">
+        <v>0.068965517241379309</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW85">
+        <v>0.5</v>
       </c>
     </row>
     <row r="86">
-      <c r="D86" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH86" t="s">
-        <v>116</v>
+      <c r="F86" t="s">
+        <v>116</v>
+      </c>
+      <c r="G86">
+        <v>0.5</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW86">
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>119</v>
       </c>
-      <c r="D87" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG87" t="s">
+      <c r="E87">
+        <v>0.11890243902439024</v>
+      </c>
+      <c r="F87" t="s">
+        <v>114</v>
+      </c>
+      <c r="G87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT87" t="s">
         <v>119</v>
       </c>
-      <c r="AH87" t="s">
-        <v>114</v>
+      <c r="AU87">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AV87" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW87">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="88">
-      <c r="D88" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH88" t="s">
-        <v>116</v>
+      <c r="F88" t="s">
+        <v>116</v>
+      </c>
+      <c r="G88">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW88">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="89">
-      <c r="D89" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH89" t="s">
-        <v>115</v>
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV89" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW89">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="90">
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>120</v>
       </c>
-      <c r="D90" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG90" t="s">
+      <c r="E90">
+        <v>0.085365853658536592</v>
+      </c>
+      <c r="F90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G90">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AT90" t="s">
         <v>120</v>
       </c>
-      <c r="AH90" t="s">
-        <v>114</v>
+      <c r="AU90">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="AV90" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW90">
+        <v>0.25</v>
       </c>
     </row>
     <row r="91">
-      <c r="D91" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH91" t="s">
-        <v>116</v>
+      <c r="F91" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AV91" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW91">
+        <v>0.25</v>
       </c>
     </row>
     <row r="92">
-      <c r="D92" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH92" t="s">
-        <v>115</v>
+      <c r="F92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AV92" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW92">
+        <v>0.25</v>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>117</v>
       </c>
-      <c r="AH93" t="s">
+      <c r="G93">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AV93" t="s">
         <v>117</v>
       </c>
+      <c r="AW93">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94">
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>121</v>
       </c>
-      <c r="D94" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG94" t="s">
+      <c r="E94">
+        <v>0.082317073170731711</v>
+      </c>
+      <c r="F94" t="s">
+        <v>114</v>
+      </c>
+      <c r="G94">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT94" t="s">
         <v>121</v>
       </c>
-      <c r="AH94" t="s">
-        <v>114</v>
+      <c r="AU94">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AV94" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW94">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="95">
-      <c r="D95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>116</v>
+      <c r="F95" t="s">
+        <v>116</v>
+      </c>
+      <c r="G95">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV95" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW95">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="96">
-      <c r="D96" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH96" t="s">
-        <v>115</v>
+      <c r="F96" t="s">
+        <v>115</v>
+      </c>
+      <c r="G96">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV96" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW96">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="97">
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>122</v>
       </c>
-      <c r="D97" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG97" t="s">
+      <c r="E97">
+        <v>0.082317073170731711</v>
+      </c>
+      <c r="F97" t="s">
+        <v>114</v>
+      </c>
+      <c r="G97">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT97" t="s">
         <v>122</v>
       </c>
-      <c r="AH97" t="s">
-        <v>114</v>
+      <c r="AU97">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AV97" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW97">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="98">
-      <c r="D98" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH98" t="s">
-        <v>116</v>
+      <c r="F98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G98">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV98" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW98">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="99">
-      <c r="D99" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH99" t="s">
-        <v>115</v>
+      <c r="F99" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV99" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW99">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +5603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3633,67 +5625,97 @@
         <v>111</v>
       </c>
       <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>111</v>
       </c>
-      <c r="O1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
-      </c>
-      <c r="S1" t="s">
-        <v>111</v>
       </c>
       <c r="T1" t="s">
         <v>112</v>
       </c>
       <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>109</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>110</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" t="s">
         <v>112</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -3703,443 +5725,824 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C2">
+        <v>0.042743538767395624</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>114</v>
+      <c r="J2">
+        <v>0.15340909090909091</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>0.045871559633027525</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="X2">
+        <v>0.18596491228070175</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2">
+        <v>0.056603773584905662</v>
+      </c>
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AD2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" t="s">
-        <v>114</v>
+      <c r="AE2">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C3">
+        <v>0.2415506958250497</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3">
+        <v>0.057613168724279837</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="J3">
+        <v>0.36931818181818182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3">
+        <v>0.061538461538461542</v>
+      </c>
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
-        <v>114</v>
+      <c r="Q3">
+        <v>0.22935779816513763</v>
       </c>
       <c r="R3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="Y3" t="s">
         <v>117</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3">
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="AD3" t="s">
         <v>15</v>
       </c>
-      <c r="W3" t="s">
-        <v>114</v>
+      <c r="AE3">
+        <v>0.22935779816513763</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG3">
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" t="s">
-        <v>115</v>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4">
+        <v>0.1076923076923077</v>
       </c>
       <c r="R4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="Y4" t="s">
         <v>118</v>
       </c>
-      <c r="W4" t="s">
-        <v>116</v>
+      <c r="Z4">
+        <v>0.69811320754716977</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG4">
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="K5" t="s">
         <v>117</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5">
+        <v>0.076923076923076927</v>
+      </c>
+      <c r="R5" t="s">
         <v>117</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="Y5" t="s">
         <v>119</v>
       </c>
-      <c r="W5" t="s">
-        <v>115</v>
+      <c r="Z5">
+        <v>0.094339622641509441</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG5">
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>117</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E6">
+        <v>0.11522633744855967</v>
+      </c>
+      <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6">
+        <v>0.64615384615384619</v>
+      </c>
+      <c r="R6" t="s">
         <v>118</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y6" t="s">
         <v>120</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="AF6" t="s">
         <v>117</v>
       </c>
+      <c r="AG6">
+        <v>0.080000000000000002</v>
+      </c>
     </row>
     <row r="7">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>118</v>
       </c>
-      <c r="H7" t="s">
+      <c r="E7">
+        <v>0.5761316872427984</v>
+      </c>
+      <c r="K7" t="s">
         <v>119</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7">
+        <v>0.092307692307692313</v>
+      </c>
+      <c r="R7" t="s">
         <v>121</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="W7" t="s">
         <v>17</v>
       </c>
-      <c r="R7" t="s">
-        <v>114</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="X7">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="AF7" t="s">
         <v>118</v>
       </c>
+      <c r="AG7">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="8">
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>119</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E8">
+        <v>0.069958847736625515</v>
+      </c>
+      <c r="K8" t="s">
         <v>120</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>0.015384615384615385</v>
+      </c>
+      <c r="P8" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="s">
-        <v>114</v>
+      <c r="Q8">
+        <v>0.33027522935779818</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
-      </c>
-      <c r="W8" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z8">
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="AF8" t="s">
         <v>119</v>
       </c>
+      <c r="AG8">
+        <v>0.080000000000000002</v>
+      </c>
     </row>
     <row r="9">
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>120</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9">
+        <v>0.03292181069958848</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="s">
-        <v>116</v>
+      <c r="J9">
+        <v>0.32386363636363635</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9">
+        <v>0.10526315789473684</v>
       </c>
       <c r="R9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z9">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="AF9" t="s">
         <v>120</v>
       </c>
+      <c r="AG9">
+        <v>0.080000000000000002</v>
+      </c>
     </row>
     <row r="10">
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>121</v>
       </c>
-      <c r="H10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" t="s">
-        <v>115</v>
+      <c r="E10">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10">
+        <v>0.31578947368421051</v>
       </c>
       <c r="R10" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="Y10" t="s">
         <v>117</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10">
+        <v>0.22666666666666666</v>
+      </c>
+      <c r="AF10" t="s">
         <v>121</v>
+      </c>
+      <c r="AG10">
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="C11">
+        <v>0.26540755467196819</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11">
+        <v>0.1198501872659176</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="R11" t="s">
         <v>117</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11">
+        <v>0.055555555555555552</v>
+      </c>
+      <c r="Y11" t="s">
         <v>118</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Z11">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="AD11" t="s">
         <v>17</v>
       </c>
-      <c r="W11" t="s">
-        <v>114</v>
+      <c r="AE11">
+        <v>0.19266055045871561</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG11">
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>0.18352059925093633</v>
+      </c>
+      <c r="K12" t="s">
         <v>117</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L12">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="R12" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="W12" t="s">
         <v>19</v>
       </c>
-      <c r="R12" t="s">
-        <v>114</v>
-      </c>
-      <c r="W12" t="s">
-        <v>116</v>
+      <c r="X12">
+        <v>0.55087719298245619</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z12">
+        <v>0.16560509554140126</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12">
+        <v>0.095238095238095233</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <v>0.43071161048689138</v>
+      </c>
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="P13" t="s">
         <v>19</v>
       </c>
-      <c r="M13" t="s">
-        <v>114</v>
+      <c r="Q13">
+        <v>0.39449541284403672</v>
       </c>
       <c r="R13" t="s">
-        <v>391</v>
-      </c>
-      <c r="W13" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="S13">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13">
+        <v>0.16560509554140126</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG13">
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>117</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E14">
+        <v>0.1348314606741573</v>
+      </c>
+      <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
-        <v>392</v>
-      </c>
-      <c r="M14" t="s">
-        <v>391</v>
+      <c r="J14">
+        <v>0.15340909090909091</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14">
+        <v>0.1111111111111111</v>
       </c>
       <c r="R14" t="s">
-        <v>392</v>
-      </c>
-      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14">
+        <v>0.12790697674418605</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z14">
+        <v>0.22929936305732485</v>
+      </c>
+      <c r="AF14" t="s">
         <v>117</v>
       </c>
+      <c r="AG14">
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="15">
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>118</v>
       </c>
-      <c r="H15" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" t="s">
-        <v>392</v>
+      <c r="E15">
+        <v>0.13108614232209737</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15">
+        <v>0.33333333333333331</v>
       </c>
       <c r="R15" t="s">
-        <v>116</v>
-      </c>
-      <c r="W15" t="s">
+        <v>135</v>
+      </c>
+      <c r="S15">
+        <v>0.093023255813953487</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z15">
+        <v>0.050955414012738856</v>
+      </c>
+      <c r="AF15" t="s">
         <v>118</v>
+      </c>
+      <c r="AG15">
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>394</v>
-      </c>
-      <c r="M16" t="s">
-        <v>116</v>
+      <c r="C16">
+        <v>0.45029821073558646</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16">
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16">
+        <v>0.22222222222222221</v>
       </c>
       <c r="R16" t="s">
-        <v>393</v>
-      </c>
-      <c r="V16" t="s">
+        <v>116</v>
+      </c>
+      <c r="S16">
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z16">
+        <v>0.038216560509554139</v>
+      </c>
+      <c r="AD16" t="s">
         <v>19</v>
       </c>
-      <c r="W16" t="s">
-        <v>114</v>
+      <c r="AE16">
+        <v>0.55963302752293576</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG16">
+        <v>0.13114754098360656</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H17" t="s">
-        <v>395</v>
-      </c>
-      <c r="M17" t="s">
-        <v>395</v>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17">
+        <v>0.11920529801324503</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17">
+        <v>0.1111111111111111</v>
       </c>
       <c r="R17" t="s">
-        <v>394</v>
-      </c>
-      <c r="W17" t="s">
-        <v>391</v>
+        <v>138</v>
+      </c>
+      <c r="S17">
+        <v>0.069767441860465115</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z17">
+        <v>0.076433121019108277</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG17">
+        <v>0.092896174863387984</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="s">
-        <v>392</v>
-      </c>
-      <c r="H18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18" t="s">
-        <v>115</v>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>0.19867549668874171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18">
+        <v>0.1111111111111111</v>
       </c>
       <c r="R18" t="s">
         <v>115</v>
       </c>
-      <c r="W18" t="s">
-        <v>392</v>
+      <c r="S18">
+        <v>0.034883720930232558</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z18">
+        <v>0.050955414012738856</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG18">
+        <v>0.23497267759562843</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19">
+        <v>0.090507726269315678</v>
+      </c>
+      <c r="K19" t="s">
         <v>117</v>
       </c>
-      <c r="M19" t="s">
-        <v>117</v>
+      <c r="L19">
+        <v>0.1111111111111111</v>
       </c>
       <c r="R19" t="s">
         <v>117</v>
       </c>
-      <c r="W19" t="s">
-        <v>116</v>
+      <c r="S19">
+        <v>0.069767441860465115</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z19">
+        <v>0.057324840764331211</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG19">
+        <v>0.032786885245901641</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="s">
-        <v>393</v>
-      </c>
-      <c r="M20" t="s">
-        <v>118</v>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20">
+        <v>0.033112582781456956</v>
       </c>
       <c r="R20" t="s">
         <v>118</v>
       </c>
-      <c r="W20" t="s">
-        <v>393</v>
+      <c r="S20">
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z20">
+        <v>0.057324840764331211</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG20">
+        <v>0.049180327868852458</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="s">
-        <v>394</v>
-      </c>
-      <c r="M21" t="s">
-        <v>119</v>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21">
+        <v>0.059602649006622516</v>
       </c>
       <c r="R21" t="s">
         <v>119</v>
       </c>
-      <c r="W21" t="s">
-        <v>394</v>
+      <c r="S21">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z21">
+        <v>0.10828025477707007</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG21">
+        <v>0.049180327868852458</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s">
-        <v>395</v>
-      </c>
-      <c r="W22" t="s">
-        <v>395</v>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22">
+        <v>0.039735099337748346</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG22">
+        <v>0.049180327868852458</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-      <c r="W23" t="s">
-        <v>115</v>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23">
+        <v>0.070640176600441501</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG23">
+        <v>0.098360655737704916</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="W24" t="s">
+      <c r="E24">
+        <v>0.070640176600441501</v>
+      </c>
+      <c r="AF24" t="s">
         <v>117</v>
       </c>
+      <c r="AG24">
+        <v>0.07650273224043716</v>
+      </c>
     </row>
     <row r="25">
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>118</v>
       </c>
-      <c r="W25" t="s">
+      <c r="E25">
+        <v>0.11258278145695365</v>
+      </c>
+      <c r="AF25" t="s">
         <v>118</v>
       </c>
+      <c r="AG25">
+        <v>0.15300546448087432</v>
+      </c>
     </row>
     <row r="26">
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="W26" t="s">
+      <c r="E26">
+        <v>0.072847682119205295</v>
+      </c>
+      <c r="AF26" t="s">
         <v>119</v>
+      </c>
+      <c r="AG26">
+        <v>0.032786885245901641</v>
       </c>
     </row>
   </sheetData>
